--- a/tasks_reading.xlsx
+++ b/tasks_reading.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="435">
   <si>
     <t>Number</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Chapter 27: R for Data Science - R Markdown</t>
   </si>
   <si>
-    <t>Chapter 30: R for Data Science - R Markdwon workflow</t>
-  </si>
-  <si>
     <t>Chapter 5: R for Data Science - Data transformation</t>
   </si>
   <si>
@@ -1051,9 +1048,6 @@
     <t>Make sure your GitHub account is registered</t>
   </si>
   <si>
-    <t>Create a [GitHub account](https://github.com/join?source=header-home){target="blank"} and post your github username on the google docs sheet in I-Learn</t>
-  </si>
-  <si>
     <t>Create a graphic that you could use in a presentation to summarize world child mortatility</t>
   </si>
   <si>
@@ -1319,6 +1313,24 @@
   </si>
   <si>
     <t>Check your folder structure in your git repo to match the format for our class - [see MCS 335 Folder Structure](https://byuistats.github.io/M335/git_335.html)</t>
+  </si>
+  <si>
+    <t>Chapter 30: R for Data Science - R Markdown workflow</t>
+  </si>
+  <si>
+    <t>https://campus.datacamp.com/courses/introduction-to-the-tidyverse/data-wrangling-1?ex=1</t>
+  </si>
+  <si>
+    <t>DataCamp:  Data Wrangling Chapter of Introduction to Tidyverse</t>
+  </si>
+  <si>
+    <t>https://campus.datacamp.com/courses/introduction-to-the-tidyverse/grouping-and-summarizing?ex=1</t>
+  </si>
+  <si>
+    <t>DataCamp:  Data Transformation Chapter of Introduction to Tidyverse</t>
+  </si>
+  <si>
+    <t>Create a [GitHub account](https://github.com/join?source=header-home){target="blank"} and post your github username on the [google docs sheet](https://docs.google.com/spreadsheets/d/13aQsQYnGTQXyyBUGzE1V9MExEvG5woAmygtkdjltdjk/edit#gid=59053514)</t>
   </si>
 </sst>
 </file>
@@ -1701,17 +1713,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="115.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="115.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1725,15 +1737,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1741,7 +1753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1749,7 +1761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1757,7 +1769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1765,7 +1777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1773,7 +1785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1781,7 +1793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1789,7 +1801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1797,23 +1809,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1821,7 +1833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1829,7 +1841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1837,15 +1849,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1853,15 +1865,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1869,7 +1881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1877,18 +1889,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F21" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1896,7 +1908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1904,864 +1916,864 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C25"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>4</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>4</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>4</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>4</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>8</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>8</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>8</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>8</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>8</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>14</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>16</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>16</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>16</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>18</v>
       </c>
       <c r="B109" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>18</v>
       </c>
       <c r="B110" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>18</v>
       </c>
       <c r="B111" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>19</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>19</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
       <c r="B124" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>22</v>
       </c>
       <c r="B125" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>22</v>
       </c>
       <c r="B126" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>23</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C127" s="11"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>23</v>
       </c>
       <c r="B128" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2778,9 +2790,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2794,31 +2806,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2826,7 +2838,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2834,7 +2846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2842,7 +2854,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2850,7 +2862,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2858,7 +2870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2866,15 +2878,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2882,116 +2894,116 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2999,12 +3011,12 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -3012,64 +3024,64 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>3</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>3</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>3</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>3</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>3</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -3077,12 +3089,12 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>3</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -3090,780 +3102,780 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>4</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>11</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>11</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>12</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>13</v>
       </c>
       <c r="B127" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -3873,19 +3885,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="64.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3899,7 +3911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3913,7 +3925,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3927,7 +3939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3941,7 +3953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3949,13 +3961,13 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>429</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3969,7 +3981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3980,10 +3992,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3997,7 +4009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4005,13 +4017,13 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4025,7 +4037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -4039,7 +4051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4047,13 +4059,13 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" t="s">
         <v>239</v>
       </c>
-      <c r="D12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4061,13 +4073,13 @@
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4075,13 +4087,13 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
         <v>69</v>
       </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4095,7 +4107,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4109,7 +4121,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4123,7 +4135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4137,7 +4149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4151,7 +4163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4159,13 +4171,13 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -4173,13 +4185,13 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -4187,13 +4199,13 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -4201,13 +4213,13 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D23" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -4215,139 +4227,139 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
         <v>59</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D25" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>421</v>
+      </c>
+      <c r="D28" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
-        <v>423</v>
-      </c>
-      <c r="D26" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>6</v>
       </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
-        <v>6</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" t="s">
-        <v>90</v>
+      <c r="C33" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -4355,131 +4367,131 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36" t="s">
         <v>259</v>
       </c>
-      <c r="D34" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
+    </row>
+    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
         <v>7</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="B37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>7</v>
       </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>359</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
         <v>357</v>
       </c>
-      <c r="I36" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37">
+      <c r="D38" t="s">
+        <v>355</v>
+      </c>
+      <c r="I38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>8</v>
       </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="D37" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D39" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>8</v>
       </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>426</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="9">
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>424</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
         <v>5</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>5</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="C40" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I40" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
-        <v>36</v>
-      </c>
       <c r="C42" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -4487,13 +4499,13 @@
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -4501,13 +4513,13 @@
         <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -4515,41 +4527,41 @@
         <v>36</v>
       </c>
       <c r="C45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" t="s">
         <v>185</v>
       </c>
-      <c r="D45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>10</v>
-      </c>
-      <c r="B46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>10</v>
-      </c>
-      <c r="B47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" t="s">
-        <v>217</v>
-      </c>
-      <c r="D47" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10</v>
       </c>
@@ -4557,71 +4569,71 @@
         <v>36</v>
       </c>
       <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" t="s">
         <v>167</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="51" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>6</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>6</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>6</v>
-      </c>
-      <c r="B50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51">
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>11</v>
-      </c>
-      <c r="B51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>12</v>
       </c>
       <c r="B53" t="s">
         <v>36</v>
@@ -4630,10 +4642,10 @@
         <v>141</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
@@ -4641,13 +4653,13 @@
         <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>374</v>
+        <v>153</v>
       </c>
       <c r="D54" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>12</v>
       </c>
@@ -4655,13 +4667,13 @@
         <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>373</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>12</v>
       </c>
@@ -4669,13 +4681,13 @@
         <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D56" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -4683,55 +4695,55 @@
         <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D57" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" t="s">
+        <v>369</v>
+      </c>
+      <c r="D58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58">
+      <c r="D59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>7</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D58" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" t="s">
-        <v>121</v>
+      <c r="C60" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>13</v>
       </c>
@@ -4739,167 +4751,167 @@
         <v>36</v>
       </c>
       <c r="C61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" t="s">
         <v>188</v>
       </c>
-      <c r="D61" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>14</v>
       </c>
-      <c r="B62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
         <v>193</v>
       </c>
-      <c r="D62" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>14</v>
-      </c>
-      <c r="B63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D65" t="s">
         <v>194</v>
       </c>
-      <c r="D63" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>8</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C66" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" t="s">
         <v>277</v>
       </c>
-      <c r="D64" t="s">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s">
+        <v>382</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" t="s">
+        <v>376</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" t="s">
+        <v>379</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>15</v>
-      </c>
-      <c r="B65" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" t="s">
-        <v>159</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>15</v>
-      </c>
-      <c r="B66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" t="s">
-        <v>384</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>16</v>
-      </c>
-      <c r="B67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" t="s">
-        <v>378</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>16</v>
-      </c>
-      <c r="B68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" t="s">
-        <v>381</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>9</v>
-      </c>
-      <c r="B69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>17</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C72" t="s">
         <v>279</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D72" t="s">
         <v>280</v>
       </c>
-      <c r="D70" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>18</v>
-      </c>
-      <c r="B71" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71" t="s">
-        <v>127</v>
-      </c>
-      <c r="D71" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>18</v>
-      </c>
-      <c r="B72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>18</v>
       </c>
@@ -4907,13 +4919,13 @@
         <v>36</v>
       </c>
       <c r="C73" t="s">
-        <v>294</v>
+        <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>18</v>
       </c>
@@ -4921,100 +4933,100 @@
         <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>393</v>
+        <v>129</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>18</v>
       </c>
       <c r="B75" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" t="s">
+        <v>293</v>
+      </c>
+      <c r="D75" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" t="s">
+        <v>391</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>10</v>
-      </c>
-      <c r="B76" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D76" t="s">
-        <v>387</v>
-      </c>
-      <c r="G76" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>10</v>
-      </c>
-      <c r="B77" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" t="s">
-        <v>257</v>
-      </c>
-      <c r="D77" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>10</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D78" t="s">
+        <v>385</v>
+      </c>
+      <c r="G78" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" t="s">
+        <v>256</v>
+      </c>
+      <c r="D79" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" t="s">
+        <v>298</v>
+      </c>
+      <c r="D80" t="s">
         <v>299</v>
       </c>
-      <c r="D78" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>19</v>
-      </c>
-      <c r="B79" t="s">
-        <v>36</v>
-      </c>
-      <c r="C79" t="s">
-        <v>297</v>
-      </c>
-      <c r="D79" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>19</v>
-      </c>
-      <c r="B80" t="s">
-        <v>36</v>
-      </c>
-      <c r="C80" t="s">
-        <v>301</v>
-      </c>
-      <c r="D80" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>19</v>
       </c>
@@ -5022,13 +5034,13 @@
         <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>388</v>
+        <v>296</v>
       </c>
       <c r="D81" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>19</v>
       </c>
@@ -5036,13 +5048,13 @@
         <v>36</v>
       </c>
       <c r="C82" t="s">
-        <v>396</v>
+        <v>300</v>
       </c>
       <c r="D82" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>19</v>
       </c>
@@ -5050,41 +5062,41 @@
         <v>36</v>
       </c>
       <c r="C83" t="s">
+        <v>386</v>
+      </c>
+      <c r="D83" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" t="s">
+        <v>394</v>
+      </c>
+      <c r="D84" t="s">
         <v>397</v>
       </c>
-      <c r="D83" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>20</v>
-      </c>
-      <c r="B84" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" t="s">
-        <v>400</v>
-      </c>
-      <c r="D84" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B85" t="s">
         <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>133</v>
+        <v>395</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20</v>
       </c>
@@ -5092,55 +5104,55 @@
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="D86" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" t="s">
+        <v>422</v>
+      </c>
+      <c r="D88" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>11</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
         <v>37</v>
       </c>
-      <c r="C87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="C89" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>21</v>
-      </c>
-      <c r="B88" t="s">
-        <v>36</v>
-      </c>
-      <c r="C88" t="s">
-        <v>108</v>
-      </c>
-      <c r="D88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>21</v>
-      </c>
-      <c r="B89" t="s">
-        <v>36</v>
-      </c>
-      <c r="C89" t="s">
-        <v>109</v>
-      </c>
       <c r="D89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>21</v>
       </c>
@@ -5148,13 +5160,13 @@
         <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D90" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>21</v>
       </c>
@@ -5162,13 +5174,13 @@
         <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>21</v>
       </c>
@@ -5176,13 +5188,13 @@
         <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D92" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>21</v>
       </c>
@@ -5190,13 +5202,13 @@
         <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D93" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>21</v>
       </c>
@@ -5204,41 +5216,41 @@
         <v>36</v>
       </c>
       <c r="C94" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" t="s">
         <v>117</v>
       </c>
-      <c r="D94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B95" t="s">
         <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D95" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B96" t="s">
         <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D96" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>22</v>
       </c>
@@ -5246,131 +5258,159 @@
         <v>36</v>
       </c>
       <c r="C97" t="s">
+        <v>134</v>
+      </c>
+      <c r="D97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>22</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>22</v>
+      </c>
+      <c r="B99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" t="s">
         <v>138</v>
       </c>
-      <c r="D97" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>12</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B100" t="s">
         <v>37</v>
       </c>
-      <c r="C98" t="s">
-        <v>415</v>
-      </c>
-      <c r="D98" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99">
+      <c r="C100" t="s">
+        <v>413</v>
+      </c>
+      <c r="D100" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>23</v>
       </c>
-      <c r="B99" t="s">
-        <v>36</v>
-      </c>
-      <c r="C99" t="s">
-        <v>160</v>
-      </c>
-      <c r="D99" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100">
+      <c r="B101" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" t="s">
+        <v>159</v>
+      </c>
+      <c r="D101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>23</v>
       </c>
-      <c r="B100" t="s">
-        <v>36</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B102" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" t="s">
+        <v>281</v>
+      </c>
+      <c r="D102" t="s">
         <v>282</v>
       </c>
-      <c r="D100" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="9">
+    </row>
+    <row r="103" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
         <v>23</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102">
+      <c r="B103" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>24</v>
       </c>
-      <c r="B102" t="s">
-        <v>36</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>24</v>
+      </c>
+      <c r="B105" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" t="s">
         <v>145</v>
       </c>
-      <c r="D102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>24</v>
-      </c>
-      <c r="B103" t="s">
-        <v>36</v>
-      </c>
-      <c r="C103" t="s">
-        <v>146</v>
-      </c>
-      <c r="D103" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104">
+      <c r="D105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>13</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B106" t="s">
         <v>37</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C106" t="s">
+        <v>234</v>
+      </c>
+      <c r="D106" t="s">
         <v>235</v>
       </c>
-      <c r="D104" t="s">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>13</v>
-      </c>
-      <c r="B105" t="s">
-        <v>37</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="D107" t="s">
         <v>237</v>
-      </c>
-      <c r="D105" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D65" r:id="rId1"/>
-    <hyperlink ref="D69" r:id="rId2"/>
-    <hyperlink ref="D40" r:id="rId3"/>
+    <hyperlink ref="D67" r:id="rId1"/>
+    <hyperlink ref="D71" r:id="rId2"/>
+    <hyperlink ref="D42" r:id="rId3"/>
     <hyperlink ref="D21" r:id="rId4"/>
-    <hyperlink ref="D38" r:id="rId5"/>
+    <hyperlink ref="D40" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/tasks_reading.xlsx
+++ b/tasks_reading.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9645"/>
+    <workbookView xWindow="39435" yWindow="2025" windowWidth="35625" windowHeight="19035"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="CaseStudies" sheetId="3" r:id="rId2"/>
     <sheet name="Reading" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="443">
   <si>
     <t>Number</t>
   </si>
@@ -649,688 +649,712 @@
     <t>http://vita.had.co.nz/papers/tidy-data.pdf</t>
   </si>
   <si>
+    <t>Use `read_rds(gzcon(url("https://byuistats.github.io/M335/data/BoM_SaviorNames.rds")))` to download and load the Savior names table into R</t>
+  </si>
+  <si>
+    <t>Use the appropriate functions in `library(readr)`, `library(haven)`, `library(readxl)` to read in the five files found on [GitHub](https://github.com/byuistats/data/tree/master/Dart_Expert_Dow_6month_anova){target="blank"}</t>
+  </si>
+  <si>
+    <t>Use `read_rds(gzcon(url("WEBLOCATION.rds")))` to download and load the `.rds` file type</t>
+  </si>
+  <si>
+    <t>Check that all five files you have imported into R are in fact the same with `all.equal()`</t>
+  </si>
+  <si>
+    <t>Use one of the files to make a graphic showing the performance of the Dart, DJIA, and Pro stock selections</t>
+  </si>
+  <si>
+    <t>Include a boxplot, the jittered returns, and the average return in your graphic</t>
+  </si>
+  <si>
+    <t>Save your `.R` script and your image to your repository and be ready to share your code that built your graphic in class</t>
+  </si>
+  <si>
+    <t>tidy R Package functions</t>
+  </si>
+  <si>
+    <t>https://rpubs.com/bradleyboehmke/data_wrangling</t>
+  </si>
+  <si>
+    <t>Import the Dart_Expert_Dow_6month_anova data from GitHub (see details in previous task)</t>
+  </si>
+  <si>
+    <t>Create a plot that shows the six-month returns by the year in which the returns are collected</t>
+  </si>
+  <si>
+    <t>Create a table of the DJIA returns with months on the rows and years in the columns ("spread" the data)</t>
+  </si>
+  <si>
+    <t>Include your plots in an `.Rmd` file with short paragraph describing your plots</t>
+  </si>
+  <si>
+    <t>Include your plots in an `.Rmd` file with short paragraph describing your plots. Make sure to display the `tidyr` code in your file</t>
+  </si>
+  <si>
+    <t>Load your "tidy" data from the previous task using the stock return data</t>
+  </si>
+  <si>
+    <t>Create a plot that shows the six-month returns by the month in which the returns are collected using the eight years of data</t>
+  </si>
+  <si>
+    <t>Make a plot showing how professional baseball player earnings that played baseball at BYU compared to the players from other Utah schools</t>
+  </si>
+  <si>
+    <t>Use the correct functions from `library(haven)` , `library(readr)`, and `library(readxl)` to load the 6 data sets listed [here](https://byuistats.github.io/M335/maleheight.html){target="blank"}</t>
+  </si>
+  <si>
+    <t>Tidy the Worldwide estimates `.xlsx` file</t>
+  </si>
+  <si>
+    <t>Import the other five datasets into R and combine them into one tidy dataset.</t>
+  </si>
+  <si>
+    <t>This dataset should have the following columns - birth_year, height.cm, height.in, and study_id</t>
+  </si>
+  <si>
+    <t>Make a plot with decade on the x-axis and height in inches on the y-axis with the points from Germany highlighted based on the data from the `.xlsx` file.</t>
+  </si>
+  <si>
+    <t>Make a small-multiples plot of the five studies to examine the question of height distribution across centuries</t>
+  </si>
+  <si>
+    <t>Create an `.Rmd` file with 1-2 paragraphs summarizing your graphics and how those graphics answer the driving question</t>
+  </si>
+  <si>
+    <t>Medium:  Getting Data Science Jobs</t>
+  </si>
+  <si>
+    <t>https://medium.com/@datalab/how-to-break-into-the-data-science-market-f0e0b79b42f7</t>
+  </si>
+  <si>
+    <t>Quora: Building Data Science Resume</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/How-do-I-get-a-job-as-a-data-scientist-if-I-have-no-prior-experience-as-a-data-scientist</t>
+  </si>
+  <si>
+    <t>Forbes:  Data science demand</t>
+  </si>
+  <si>
+    <t>https://www.forbes.com/sites/drewhansen/2016/10/21/become-data-scientist/#3e8a4f4c87d3</t>
+  </si>
+  <si>
+    <t>List 2-3 items that are unique/good</t>
+  </si>
+  <si>
+    <t>Identify 1 issue with the each example</t>
+  </si>
+  <si>
+    <t>Find other examples of people addressing your question</t>
+  </si>
+  <si>
+    <t>Present your question to a data scientist to get feedback on the quality of the question and if it can be addressed in 2-months.</t>
+  </si>
+  <si>
+    <t>Find 3-5 potential data sources (that are free) and document some information about the source</t>
+  </si>
+  <si>
+    <t>Write a short summary of the read in process and some coding secrets you learned</t>
+  </si>
+  <si>
+    <t>Include 2-3 quick visualizations that you used to check the quality of your data</t>
+  </si>
+  <si>
+    <t>Summarize the limitations of your final compiled data in addressing your original question</t>
+  </si>
+  <si>
+    <t>Present your visualization based analysis that addresses your question</t>
+  </si>
+  <si>
+    <t>Choose your flavor of `.Rmd` for your presentation</t>
+  </si>
+  <si>
+    <t>Build a stand-alone analysis that helps a reader answer the question at hand with that available data</t>
+  </si>
+  <si>
+    <t>Present your analysis to your roommates (or spouse) and update your presentation based on the feedback</t>
+  </si>
+  <si>
+    <t>Get feedback from 2-3 fellow classmates on your presentation and update it based on their feedback</t>
+  </si>
+  <si>
+    <t>Present your draft presentation to a data scientist to review for clarity</t>
+  </si>
+  <si>
+    <t>Present your work in class, at a society meeting, the research and creative works conference, or as a blog post online</t>
+  </si>
+  <si>
+    <t>Build an interactive document that has links to sources with a description of the quality of each</t>
+  </si>
+  <si>
+    <t>rnaturalearth R Package</t>
+  </si>
+  <si>
+    <t>https://github.com/ropenscilabs/rnaturalearth</t>
+  </si>
+  <si>
+    <t>reprex R Package</t>
+  </si>
+  <si>
+    <t>https://github.com/tidyverse/reprex#what-is-a-reprex</t>
+  </si>
+  <si>
+    <t>Read in the data from `https://byuistats.github.io/M335/data/sales.csv` and format it for visualization and analysis</t>
+  </si>
+  <si>
+    <t>Provide an understanding and recommendation for hours of operation</t>
+  </si>
+  <si>
+    <t>The data are for businesses in the mountain time zone make sure you read in times correctly</t>
+  </si>
+  <si>
+    <t>This is point of sale (pos) data, so you will need to use `library(lubridate)` to create the correct time aggregations</t>
+  </si>
+  <si>
+    <t>Check the data for any inaccuracies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help your boss understand which business is the best investment through visualizations </t>
+  </si>
+  <si>
+    <t>We don't have employee numbers, but sales traffic can help.  Provide some visualizations on customer traffic</t>
+  </si>
+  <si>
+    <t>Provide a final comparison of the six companies and a final recommendation</t>
+  </si>
+  <si>
+    <t>Save your script and `.png` files to GitHub</t>
+  </si>
+  <si>
+    <t>Be prepared to share your visualization and why your reasoning for how the visualization answers the question</t>
+  </si>
+  <si>
+    <t>Create a `.png` image for each question</t>
+  </si>
+  <si>
+    <t>Aggregate the point of sale data into hour sales totals</t>
+  </si>
+  <si>
+    <t>Read in the car wash data `https://byuistats.github.io/M335/data/carwash.csv` and format it for the needs of this task</t>
+  </si>
+  <si>
+    <t>Create a new hourly variable that matches your car wash hourly variable</t>
+  </si>
+  <si>
+    <t>Merge the two datasets together</t>
+  </si>
+  <si>
+    <t>Create a visualization that provides insight into the relationship between sales and temperature by hour of the day</t>
+  </si>
+  <si>
+    <t>lubridate R package</t>
+  </si>
+  <si>
+    <t>http://lubridate.tidyverse.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task </t>
+  </si>
+  <si>
+    <t>tidyquants R package</t>
+  </si>
+  <si>
+    <t>https://github.com/business-science/tidyquant</t>
+  </si>
+  <si>
+    <t>Ethics of a Data Scientist</t>
+  </si>
+  <si>
+    <t>http://www.slate.com/articles/technology/future_tense/2016/02/how_to_bring_better_ethics_to_data_science.html</t>
+  </si>
+  <si>
+    <t>For your coding development use these tickers - `tickers_today &lt;- c("CXW", "F", "GM", "JCP", "KR", "WDC", "NKE","T", "WDAY", "WFC", "WMT")`</t>
+  </si>
+  <si>
+    <t>Use `library(dygraphs)` to build interactive visualizations of the stock performances over the last 5 years.</t>
+  </si>
+  <si>
+    <t>Make a `library(ggplot2)` graphic that helps you build a solid question around how an investor would use volume in their trading strategy</t>
+  </si>
+  <si>
+    <t>Create an `.Rmd` file with 1-2 paragraphs summarizing your graphics and the choices you made in your visualization</t>
+  </si>
+  <si>
+    <t>List the three stocks that your friend picks and the three that you pick</t>
+  </si>
+  <si>
+    <t>Create an `.Rmd` file with 1-2 paragraphs summarizing your graphics and the choices you made in the data presentation</t>
+  </si>
+  <si>
+    <t>Build the `library(dygraphs)` plot that shows the Kroger (KG) stock price performance</t>
+  </si>
+  <si>
+    <t>Add a few annotations to the plot that identify the historical context for the price change</t>
+  </si>
+  <si>
+    <t>Build a visualization that shows who is winning each day of the competition</t>
+  </si>
+  <si>
+    <t>Find 4-5 examples of data-driven answers and write a one-paragraph review of each.</t>
+  </si>
+  <si>
+    <t>timekit R package</t>
+  </si>
+  <si>
+    <t>https://github.com/business-science/timekit</t>
+  </si>
+  <si>
+    <t>Use the graphical perception rules you learned in your reading to make a graph that is accurate and optimizes data communication.</t>
+  </si>
+  <si>
+    <t>Using SF package with tidyverse</t>
+  </si>
+  <si>
+    <t>https://byuistats.github.io/M335/spatial_reading.html</t>
+  </si>
+  <si>
+    <t>geofacet for ggplot2 in R</t>
+  </si>
+  <si>
+    <t>https://hafen.github.io/geofacet/</t>
+  </si>
+  <si>
+    <t>SF R package</t>
+  </si>
+  <si>
+    <t>https://r-spatial.github.io/sf/</t>
+  </si>
+  <si>
+    <t>Read in the `permits` data from `devtools::install_github("hathawayj/buildings")` and tidy it for spatial visualization needs</t>
+  </si>
+  <si>
+    <t>You will need to merge it with the spatial data so it will require some column mutation</t>
+  </si>
+  <si>
+    <t>Use the `library(USAboundaries)` package to get the spatial maps for the US</t>
+  </si>
+  <si>
+    <t>You will need to use the FIPS numbers to merge with the permit data</t>
+  </si>
+  <si>
+    <t>Create state level totals from the county level data to show general patterns across the US over time</t>
+  </si>
+  <si>
+    <t>Create an `.Rmd` file with 1-2 paragraphs summarizing your graphics and the choices you made in your visualization to address the reporter's needs</t>
+  </si>
+  <si>
+    <t>Create a `.png` image that closely matches my example</t>
+  </si>
+  <si>
+    <t>Note that `fill = NA` in `geom_sf()` will not fill the polygons with a grey color</t>
+  </si>
+  <si>
+    <t>Note that `library(USAboundaries)` has three useful functions - `us_cities()`, `us_states()`, and `us_counties()`</t>
+  </si>
+  <si>
+    <t>Read in all four of the necessary shp file datasets (see description)</t>
+  </si>
+  <si>
+    <t>Filter all the data for the specific needs of Idaho</t>
+  </si>
+  <si>
+    <t>Create a `.png` image that plots the required information</t>
+  </si>
+  <si>
+    <t>Be prepared to discuss your observations of the well and dam locations in our next class meeting</t>
+  </si>
+  <si>
+    <t>Complete listed reading for class discussion</t>
+  </si>
+  <si>
+    <t>Complete the listed reading for class discussion</t>
+  </si>
+  <si>
+    <t>Find an additional article on R or Python and "big data" and write a summary of the article</t>
+  </si>
+  <si>
+    <t>Create an `.Rmd` file summarizing your reading</t>
+  </si>
+  <si>
+    <t>See tasks for [Task 19](https://byuistats.github.io/M335/class_tasks/task19_details.html) or [Task 20](https://byuistats.github.io/M335/class_tasks/task20_details.html)</t>
+  </si>
+  <si>
+    <t>Find your own spatial data that interests you and build a visualization</t>
+  </si>
+  <si>
+    <t>Use `devtools::install_github("drsimonj/ourworldindata")` to get a larger dataset on `financing_healthcare`</t>
+  </si>
+  <si>
+    <t>Complete LinkedIn, GitHub, Slack profiles that have been connected to our BYU-I data science community</t>
+  </si>
+  <si>
+    <t>A cover letter stating the key concepts and techniques that you learned during our projects and your goals to continue learning in this area - include a grade request that represents your knowledge and task completion</t>
+  </si>
+  <si>
+    <t>A resume that includes the skills you have learned during our projects</t>
+  </si>
+  <si>
+    <t>Semester project submission on GitHub</t>
+  </si>
+  <si>
+    <t>Use `tempfile()` function for downloading files</t>
+  </si>
+  <si>
+    <t>Find two other student's compiled files in their repository and provide feedback using the issues feature in GitHub (If they already have three issues find a different student to critique)</t>
+  </si>
+  <si>
+    <t>Address 1-2 of the issues posted on your project and push the updates to GitHub</t>
+  </si>
+  <si>
+    <t>https://byuistats.github.io/M335/r_help.html</t>
+  </si>
+  <si>
+    <t>Save your "tidy" data as an `.rds` object</t>
+  </si>
+  <si>
+    <t>See task 16</t>
+  </si>
+  <si>
+    <t>https://byuistats.github.io/M335/class_tasks/task16_details.html</t>
+  </si>
+  <si>
+    <t>Ignore the token submission step</t>
+  </si>
+  <si>
+    <t>Update your README.md in your repository (you will need to give me time to create your repo after you post your username)</t>
+  </si>
+  <si>
+    <t>Complete Lessons 5-7 in the `library(swirl)` package of the course `install_course("R Programming E")`</t>
+  </si>
+  <si>
+    <t>Recreate the two graphics shown below using `gapminder` dataset from `library(gapminder)` (get them to match as closely as you can)</t>
+  </si>
+  <si>
+    <t>Use `library(ggplot2)` and the `theme_bw()` to duplicate the second plot. You will need to use the new data to make the black lines and dots showing the continent average.</t>
+  </si>
+  <si>
+    <t>Make sure your GitHub account is registered</t>
+  </si>
+  <si>
+    <t>Create a graphic that you could use in a presentation to summarize world child mortatility</t>
+  </si>
+  <si>
+    <t>MCS 335, Git, and Github use</t>
+  </si>
+  <si>
+    <t>https://byuistats.github.io/M335/git_335.html</t>
+  </si>
+  <si>
+    <t>R-Studio and the Git GUI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E2d91v1Twcc</t>
+  </si>
+  <si>
+    <t>Use  `scale_y_continuous(trans = "sqrt")` to get the correct scale on the y-axis.</t>
+  </si>
+  <si>
+    <t>Create one plot that provides similar insight to their visualization in the article. It does not have to look like theirs.</t>
+  </si>
+  <si>
+    <t>Explore the world data on `financing_healthcare` and create an interesting graphic that highlights this dataset in relation to child mortality.</t>
+  </si>
+  <si>
+    <t>Use the `library(downloader)` R package and use the `download(mode = "wb")` function to download the xlsx data as `read_xlsx()` cannot read files from the web path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the `separate()` and `mutate()` functions to create a decade column. </t>
+  </si>
+  <si>
+    <t>The BLS wage data does not have birth information.  Let's assume it is mid-twentieth century and use 1950.</t>
+  </si>
+  <si>
+    <t>Save the two tidy datasets to your repository - The world country estimates and the row-combined individual measurements.</t>
+  </si>
+  <si>
+    <t>Make sure the file is in long format with year as a column.  See [here](https://byuistats.github.io/M335/maleheight_tidy.html) for an example of the final format.</t>
+  </si>
+  <si>
+    <t>See the reading of [Task 7](https://byuistats.github.io/M335/class_tasks/task07_details.html) for how to read in dbf files.</t>
+  </si>
+  <si>
+    <t>https://github.com/hadley/devtools</t>
+  </si>
+  <si>
+    <t>Create a graphic that you could use in a final presentation to summarize world child mortatility (`child_mort` column)</t>
+  </si>
+  <si>
+    <t>devtoools R Package</t>
+  </si>
+  <si>
+    <t>Load the R package from GitHub `devtools::install_github("hathawayj/buildings")` and find out what [data is in the package](https://github.com/hathawayj/buildings)</t>
+  </si>
+  <si>
+    <t>After filtering to `Food_Beverage_Service` group of buildings in the `Type` variable, use the `ProjectTitle` column to create new subgroups from the groupings in the code section below and the restaurant names in `restaurants`.</t>
+  </si>
+  <si>
+    <t>leverage functions like `str_to_lower()` and `str_trim()` to get all the words in a standardized form</t>
+  </si>
+  <si>
+    <t>you could use the `case_when()` function to create the subgroups.</t>
+  </si>
+  <si>
+    <t>Construction value is related to population in the area.  Join the `climate_zone_fips` data to the `buildings0809` data using the two `FIPS` columns for state and county.</t>
+  </si>
+  <si>
+    <t>Create an `.Rmd` file with 2-3 paragraphs summarizing your 3-4 graphics that inform the client questions</t>
+  </si>
+  <si>
+    <t>https://qntm.org/files/re/re.html</t>
+  </si>
+  <si>
+    <t>https://regex101.com/</t>
+  </si>
+  <si>
+    <t>http://stat545.com/block022_regular-expression.html</t>
+  </si>
+  <si>
+    <t>Regular Expression support applet (optional)</t>
+  </si>
+  <si>
+    <t>Regular Expression for R (optional)</t>
+  </si>
+  <si>
+    <t>Regular Expression examples (optional)</t>
+  </si>
+  <si>
+    <t>regexr.com (optional)</t>
+  </si>
+  <si>
+    <t>Download the data from http://scriptures.nephi.org/downloads/lds-scriptures.csv.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address questions 1 &amp; 2 using R functions from `install.packages("stringr")` and `install.packages("stringi")` </t>
+  </si>
+  <si>
+    <t>Use the `stri_stats_latex()` and `str_locate_all()` functions from each package</t>
+  </si>
+  <si>
+    <t>lubridate Vignette</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/lubridate/vignettes/lubridate.html</t>
+  </si>
+  <si>
+    <t>https://plotlyblog.tumblr.com/post/117105992082/time-series-graphs-eleven-stunning-ways-you-can</t>
+  </si>
+  <si>
+    <t>Plotly: Time Series Blog Post</t>
+  </si>
+  <si>
+    <t>Use `riem_measures(station = "RXE",  date_start  = ,  date_end  =  )` for station `RXE` from `library(riem)` to get the matching temperatures</t>
+  </si>
+  <si>
+    <t>Create a new hourly grouping variable using `ceiling_date()` from `library(lubridate)`</t>
+  </si>
+  <si>
+    <t>Time Series Visualization Gallery</t>
+  </si>
+  <si>
+    <t>https://vcg.informatik.uni-rostock.de/~ct/timeviz/timeviz.html</t>
+  </si>
+  <si>
+    <t>Tidy Spatial Data (Blog Post)</t>
+  </si>
+  <si>
+    <t>http://strimas.com/r/tidy-sf/</t>
+  </si>
+  <si>
+    <t>USAboundaries R Package</t>
+  </si>
+  <si>
+    <t>https://github.com/ropensci/USAboundaries</t>
+  </si>
+  <si>
+    <t>Convert the times from UTC time to mountain standard time using the right function out of `library(lubridate)`.</t>
+  </si>
+  <si>
+    <t>Provide plots that help them know the different potential groups (variables) they could address in different seasons (2-4 visualizations seem necessary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>John Rauser Talk (Review)</t>
+  </si>
+  <si>
+    <t>Pull the price performance data using `library(tidyquant)` or `library(quantmod)`</t>
+  </si>
+  <si>
+    <t>In the previous visualization or with another visualization show which stock is helping the winner of the competition</t>
+  </si>
+  <si>
+    <t>Video on spatial datums</t>
+  </si>
+  <si>
+    <t>Video 2 on spatial datums</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kXTHaMY3cVk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xKGlMp__jog</t>
+  </si>
+  <si>
+    <t>Using `library(sf)` to read in spatial data</t>
+  </si>
+  <si>
+    <t>https://r-spatial.github.io/sf/articles/sf2.html</t>
+  </si>
+  <si>
+    <t>Choose an option of recreating or using new data.</t>
+  </si>
+  <si>
+    <t>Recreate [CS 10](https://byuistats.github.io/M335/weekly_projects/cs10_details.html){target="blank"} tasks with leaflet</t>
+  </si>
+  <si>
+    <t>make a plot of the data to show the answer to the specific question</t>
+  </si>
+  <si>
+    <t>Develop a few novel questions that data can answer</t>
+  </si>
+  <si>
+    <t>Get feedback from 5-10 people on their interest in your questions and summarize this feedback</t>
+  </si>
+  <si>
+    <t>Be prepared to discuss your results in the upcoming class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build an R script that reads in, formats, and visualizes the data using the principles of exploratory analysis </t>
+  </si>
+  <si>
+    <t>Repeat the [task 12 tasks](https://byuistats.github.io/M335/class_tasks/task12_details.html){target="blank"} using three functions that you built</t>
+  </si>
+  <si>
+    <t>https://www.mindtools.com/pages/article/newTMC_88.htm</t>
+  </si>
+  <si>
+    <t>Creating Questions for your project</t>
+  </si>
+  <si>
+    <t>Finding data to answer your question</t>
+  </si>
+  <si>
+    <t>https://www.dataquest.io/blog/free-datasets-for-projects/</t>
+  </si>
+  <si>
+    <t>Semester Project</t>
+  </si>
+  <si>
+    <t>Finalize first draft of your project analysis</t>
+  </si>
+  <si>
+    <t>A semester task form that records your completed tasks during the semester (electronic or print)</t>
+  </si>
+  <si>
+    <t>Address at least two of the three questions in the background description (if you have time try to tackle all three)</t>
+  </si>
+  <si>
+    <t>Effectively Communicating Numbers (pg 1-13)</t>
+  </si>
+  <si>
+    <t>http://perceptualedge.com/articles/Whitepapers/Communicating_Numbers.pdf</t>
+  </si>
+  <si>
+    <t>Effectively Communicating Numbers (pg 13-20)</t>
+  </si>
+  <si>
+    <t>Issues with Spatial Aggregation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wn5larsRHro</t>
+  </si>
+  <si>
+    <t>Find a post from the functional art</t>
+  </si>
+  <si>
+    <t>http://www.thefunctionalart.com</t>
+  </si>
+  <si>
+    <t>Read the [course sylabus](https://byuistats.github.io/M335/syllabus.html) and make sure you understand our class routine and grading</t>
+  </si>
+  <si>
+    <t>Check your folder structure in your git repo to match the format for our class - [see MCS 335 Folder Structure](https://byuistats.github.io/M335/git_335.html)</t>
+  </si>
+  <si>
+    <t>Chapter 30: R for Data Science - R Markdown workflow</t>
+  </si>
+  <si>
+    <t>https://campus.datacamp.com/courses/introduction-to-the-tidyverse/data-wrangling-1?ex=1</t>
+  </si>
+  <si>
+    <t>DataCamp:  Data Wrangling Chapter of Introduction to Tidyverse</t>
+  </si>
+  <si>
+    <t>https://campus.datacamp.com/courses/introduction-to-the-tidyverse/grouping-and-summarizing?ex=1</t>
+  </si>
+  <si>
+    <t>DataCamp:  Data Transformation Chapter of Introduction to Tidyverse</t>
+  </si>
+  <si>
+    <t>Create a [GitHub account](https://github.com/join?source=header-home){target="blank"} and post your github username on the [google docs sheet](https://docs.google.com/spreadsheets/d/13aQsQYnGTQXyyBUGzE1V9MExEvG5woAmygtkdjltdjk/edit#gid=59053514)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/OwII-dwh-bk</t>
+  </si>
+  <si>
+    <t>Hans Rosling: The River of Myths</t>
+  </si>
+  <si>
+    <t>Review the "What do people do with new" data link above and write one quote that resonated with you in your `.Rmd` file.</t>
+  </si>
+  <si>
+    <t>Use `devtools::install_github("drsimonj/ourworldindata")` to get a larger dataset on `child_mortality`.  This will require `install.packages("devtools")`.</t>
+  </si>
+  <si>
+    <t>Build weighted average data set using  `weighted.mean()` and GDP with  `summarise()` and `group_by()` that will be the black continent average line on the second plot</t>
+  </si>
+  <si>
+    <t>Fix your settings in R-Studio to use the [code diagnostics](https://support.rstudio.com/hc/en-us/articles/205753617-Code-Diagnostics)</t>
+  </si>
+  <si>
+    <t>After formatting your data identify any follow on or alternate questions that you could use for your project</t>
+  </si>
+  <si>
+    <t>Submit this material electronically [schedule a visit with me](https://byuistats.github.io/M335/visitme.html)</t>
+  </si>
+  <si>
+    <t>Make sure your text strings your are matching on are as standardized as possible</t>
+  </si>
+  <si>
+    <t>Read "Effectively Communicating Numbers (pg. 13-20)" and add one paragraph to your `.Rmd` summarizing what you learned.</t>
+  </si>
+  <si>
+    <t>Restaurants that are not assigned using the names and keywords that are over 4000 square feet should be grouped into `Full Service Restaurants` and be in `Quick Service Restaurants` if they are under 4000 square feet</t>
+  </si>
+  <si>
+    <t>Schedule a mid-semester [15-minute interview](https://byuistats.github.io/M335/visitme.html) to discuss your progress in the class.</t>
+  </si>
+  <si>
+    <t>The `contestant_period` column is not "tidy" we want to create a `month_end` and `year_end` column from the information it contains</t>
+  </si>
+  <si>
+    <t>foreign R Package and `read.dbf()`</t>
+  </si>
+  <si>
     <t>https://www.rdocumentation.org/packages/foreign/versions/0.8-69/topics/read.dbf</t>
   </si>
   <si>
-    <t>foreign R Package and `read.dbf()`</t>
-  </si>
-  <si>
-    <t>Use `read_rds(gzcon(url("https://byuistats.github.io/M335/data/BoM_SaviorNames.rds")))` to download and load the Savior names table into R</t>
-  </si>
-  <si>
-    <t>Use the appropriate functions in `library(readr)`, `library(haven)`, `library(readxl)` to read in the five files found on [GitHub](https://github.com/byuistats/data/tree/master/Dart_Expert_Dow_6month_anova){target="blank"}</t>
-  </si>
-  <si>
-    <t>Use `read_rds(gzcon(url("WEBLOCATION.rds")))` to download and load the `.rds` file type</t>
-  </si>
-  <si>
-    <t>Check that all five files you have imported into R are in fact the same with `all.equal()`</t>
-  </si>
-  <si>
-    <t>Use one of the files to make a graphic showing the performance of the Dart, DJIA, and Pro stock selections</t>
-  </si>
-  <si>
-    <t>Include a boxplot, the jittered returns, and the average return in your graphic</t>
-  </si>
-  <si>
-    <t>Save your `.R` script and your image to your repository and be ready to share your code that built your graphic in class</t>
-  </si>
-  <si>
-    <t>tidy R Package functions</t>
-  </si>
-  <si>
-    <t>https://rpubs.com/bradleyboehmke/data_wrangling</t>
-  </si>
-  <si>
-    <t>Import the Dart_Expert_Dow_6month_anova data from GitHub (see details in previous task)</t>
-  </si>
-  <si>
-    <t>The `contestant_period` column is not "tidy" we want to create an `month_end` and `year_end` column from the information it contains</t>
-  </si>
-  <si>
-    <t>Create a plot that shows the six-month returns by the year in which the returns are collected</t>
-  </si>
-  <si>
-    <t>Create a table of the DJIA returns with months on the rows and years in the columns ("spread" the data)</t>
-  </si>
-  <si>
-    <t>Include your plots in an `.Rmd` file with short paragraph describing your plots</t>
-  </si>
-  <si>
-    <t>Include your plots in an `.Rmd` file with short paragraph describing your plots. Make sure to display the `tidyr` code in your file</t>
-  </si>
-  <si>
-    <t>Load your "tidy" data from the previous task using the stock return data</t>
-  </si>
-  <si>
-    <t>Create a plot that shows the six-month returns by the month in which the returns are collected using the eight years of data</t>
-  </si>
-  <si>
-    <t>Make a plot showing how professional baseball player earnings that played baseball at BYU compared to the players from other Utah schools</t>
-  </si>
-  <si>
-    <t>Use the correct functions from `library(haven)` , `library(readr)`, and `library(readxl)` to load the 6 data sets listed [here](https://byuistats.github.io/M335/maleheight.html){target="blank"}</t>
-  </si>
-  <si>
-    <t>Tidy the Worldwide estimates `.xlsx` file</t>
-  </si>
-  <si>
-    <t>Import the other five datasets into R and combine them into one tidy dataset.</t>
-  </si>
-  <si>
-    <t>This dataset should have the following columns - birth_year, height.cm, height.in, and study_id</t>
-  </si>
-  <si>
-    <t>Make a plot with decade on the x-axis and height in inches on the y-axis with the points from Germany highlighted based on the data from the `.xlsx` file.</t>
-  </si>
-  <si>
-    <t>Make a small-multiples plot of the five studies to examine the question of height distribution across centuries</t>
-  </si>
-  <si>
-    <t>Create an `.Rmd` file with 1-2 paragraphs summarizing your graphics and how those graphics answer the driving question</t>
-  </si>
-  <si>
-    <t>Medium:  Getting Data Science Jobs</t>
-  </si>
-  <si>
-    <t>https://medium.com/@datalab/how-to-break-into-the-data-science-market-f0e0b79b42f7</t>
-  </si>
-  <si>
-    <t>Quora: Building Data Science Resume</t>
-  </si>
-  <si>
-    <t>https://www.quora.com/How-do-I-get-a-job-as-a-data-scientist-if-I-have-no-prior-experience-as-a-data-scientist</t>
-  </si>
-  <si>
-    <t>Forbes:  Data science demand</t>
-  </si>
-  <si>
-    <t>https://www.forbes.com/sites/drewhansen/2016/10/21/become-data-scientist/#3e8a4f4c87d3</t>
-  </si>
-  <si>
-    <t>List 2-3 items that are unique/good</t>
-  </si>
-  <si>
-    <t>Identify 1 issue with the each example</t>
-  </si>
-  <si>
-    <t>Find other examples of people addressing your question</t>
-  </si>
-  <si>
-    <t>Present your question to a data scientist to get feedback on the quality of the question and if it can be addressed in 2-months.</t>
-  </si>
-  <si>
-    <t>Find 3-5 potential data sources (that are free) and document some information about the source</t>
-  </si>
-  <si>
-    <t>Write a short summary of the read in process and some coding secrets you learned</t>
-  </si>
-  <si>
-    <t>Include 2-3 quick visualizations that you used to check the quality of your data</t>
-  </si>
-  <si>
-    <t>Summarize the limitations of your final compiled data in addressing your original question</t>
-  </si>
-  <si>
-    <t>Present your visualization based analysis that addresses your question</t>
-  </si>
-  <si>
-    <t>Choose your flavor of `.Rmd` for your presentation</t>
-  </si>
-  <si>
-    <t>Build a stand-alone analysis that helps a reader answer the question at hand with that available data</t>
-  </si>
-  <si>
-    <t>Present your analysis to your roommates (or spouse) and update your presentation based on the feedback</t>
-  </si>
-  <si>
-    <t>Get feedback from 2-3 fellow classmates on your presentation and update it based on their feedback</t>
-  </si>
-  <si>
-    <t>Present your draft presentation to a data scientist to review for clarity</t>
-  </si>
-  <si>
-    <t>Present your work in class, at a society meeting, the research and creative works conference, or as a blog post online</t>
-  </si>
-  <si>
-    <t>Build an interactive document that has links to sources with a description of the quality of each</t>
-  </si>
-  <si>
-    <t>rnaturalearth R Package</t>
-  </si>
-  <si>
-    <t>https://github.com/ropenscilabs/rnaturalearth</t>
-  </si>
-  <si>
-    <t>reprex R Package</t>
-  </si>
-  <si>
-    <t>https://github.com/tidyverse/reprex#what-is-a-reprex</t>
-  </si>
-  <si>
-    <t>Read in the data from `https://byuistats.github.io/M335/data/sales.csv` and format it for visualization and analysis</t>
-  </si>
-  <si>
-    <t>Provide an understanding and recommendation for hours of operation</t>
-  </si>
-  <si>
-    <t>The data are for businesses in the mountain time zone make sure you read in times correctly</t>
-  </si>
-  <si>
-    <t>This is point of sale (pos) data, so you will need to use `library(lubridate)` to create the correct time aggregations</t>
-  </si>
-  <si>
-    <t>Check the data for any inaccuracies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Help your boss understand which business is the best investment through visualizations </t>
-  </si>
-  <si>
-    <t>We don't have employee numbers, but sales traffic can help.  Provide some visualizations on customer traffic</t>
-  </si>
-  <si>
-    <t>Provide a final comparison of the six companies and a final recommendation</t>
-  </si>
-  <si>
-    <t>Save your script and `.png` files to GitHub</t>
-  </si>
-  <si>
-    <t>Be prepared to share your visualization and why your reasoning for how the visualization answers the question</t>
-  </si>
-  <si>
-    <t>Create a `.png` image for each question</t>
-  </si>
-  <si>
-    <t>Aggregate the point of sale data into hour sales totals</t>
-  </si>
-  <si>
-    <t>Read in the car wash data `https://byuistats.github.io/M335/data/carwash.csv` and format it for the needs of this task</t>
-  </si>
-  <si>
-    <t>Create a new hourly variable that matches your car wash hourly variable</t>
-  </si>
-  <si>
-    <t>Merge the two datasets together</t>
-  </si>
-  <si>
-    <t>Create a visualization that provides insight into the relationship between sales and temperature by hour of the day</t>
-  </si>
-  <si>
-    <t>lubridate R package</t>
-  </si>
-  <si>
-    <t>http://lubridate.tidyverse.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task </t>
-  </si>
-  <si>
-    <t>tidyquants R package</t>
-  </si>
-  <si>
-    <t>https://github.com/business-science/tidyquant</t>
-  </si>
-  <si>
-    <t>Ethics of a Data Scientist</t>
-  </si>
-  <si>
-    <t>http://www.slate.com/articles/technology/future_tense/2016/02/how_to_bring_better_ethics_to_data_science.html</t>
-  </si>
-  <si>
-    <t>For your coding development use these tickers - `tickers_today &lt;- c("CXW", "F", "GM", "JCP", "KR", "WDC", "NKE","T", "WDAY", "WFC", "WMT")`</t>
-  </si>
-  <si>
-    <t>Use `library(dygraphs)` to build interactive visualizations of the stock performances over the last 5 years.</t>
-  </si>
-  <si>
-    <t>Make a `library(ggplot2)` graphic that helps you build a solid question around how an investor would use volume in their trading strategy</t>
-  </si>
-  <si>
-    <t>Create an `.Rmd` file with 1-2 paragraphs summarizing your graphics and the choices you made in your visualization</t>
-  </si>
-  <si>
-    <t>List the three stocks that your friend picks and the three that you pick</t>
-  </si>
-  <si>
-    <t>Create an `.Rmd` file with 1-2 paragraphs summarizing your graphics and the choices you made in the data presentation</t>
-  </si>
-  <si>
-    <t>Build the `library(dygraphs)` plot that shows the Kroger (KG) stock price performance</t>
-  </si>
-  <si>
-    <t>Add a few annotations to the plot that identify the historical context for the price change</t>
-  </si>
-  <si>
-    <t>Build a visualization that shows who is winning each day of the competition</t>
-  </si>
-  <si>
-    <t>Find 4-5 examples of data-driven answers and write a one-paragraph review of each.</t>
-  </si>
-  <si>
-    <t>timekit R package</t>
-  </si>
-  <si>
-    <t>https://github.com/business-science/timekit</t>
-  </si>
-  <si>
-    <t>Use the graphical perception rules you learned in your reading to make a graph that is accurate and optimizes data communication.</t>
-  </si>
-  <si>
-    <t>Using SF package with tidyverse</t>
-  </si>
-  <si>
-    <t>https://byuistats.github.io/M335/spatial_reading.html</t>
-  </si>
-  <si>
-    <t>geofacet for ggplot2 in R</t>
-  </si>
-  <si>
-    <t>https://hafen.github.io/geofacet/</t>
-  </si>
-  <si>
-    <t>SF R package</t>
-  </si>
-  <si>
-    <t>https://r-spatial.github.io/sf/</t>
-  </si>
-  <si>
-    <t>Read in the `permits` data from `devtools::install_github("hathawayj/buildings")` and tidy it for spatial visualization needs</t>
-  </si>
-  <si>
-    <t>You will need to merge it with the spatial data so it will require some column mutation</t>
-  </si>
-  <si>
-    <t>Use the `library(USAboundaries)` package to get the spatial maps for the US</t>
-  </si>
-  <si>
-    <t>You will need to use the FIPS numbers to merge with the permit data</t>
-  </si>
-  <si>
-    <t>Create state level totals from the county level data to show general patterns across the US over time</t>
-  </si>
-  <si>
-    <t>Create an `.Rmd` file with 1-2 paragraphs summarizing your graphics and the choices you made in your visualization to address the reporter's needs</t>
-  </si>
-  <si>
-    <t>Create a `.png` image that closely matches my example</t>
-  </si>
-  <si>
-    <t>Note that `fill = NA` in `geom_sf()` will not fill the polygons with a grey color</t>
-  </si>
-  <si>
-    <t>Note that `library(USAboundaries)` has three useful functions - `us_cities()`, `us_states()`, and `us_counties()`</t>
-  </si>
-  <si>
-    <t>Read in all four of the necessary shp file datasets (see description)</t>
-  </si>
-  <si>
-    <t>Filter all the data for the specific needs of Idaho</t>
-  </si>
-  <si>
-    <t>Create a `.png` image that plots the required information</t>
-  </si>
-  <si>
-    <t>Be prepared to discuss your observations of the well and dam locations in our next class meeting</t>
-  </si>
-  <si>
-    <t>Complete listed reading for class discussion</t>
-  </si>
-  <si>
-    <t>Complete the listed reading for class discussion</t>
-  </si>
-  <si>
-    <t>Find an additional article on R or Python and "big data" and write a summary of the article</t>
-  </si>
-  <si>
-    <t>Create an `.Rmd` file summarizing your reading</t>
-  </si>
-  <si>
-    <t>See tasks for [Task 19](https://byuistats.github.io/M335/class_tasks/task19_details.html) or [Task 20](https://byuistats.github.io/M335/class_tasks/task20_details.html)</t>
-  </si>
-  <si>
-    <t>Find your own spatial data that interests you and build a visualization</t>
-  </si>
-  <si>
-    <t>Use `devtools::install_github("drsimonj/ourworldindata")` to get a larger dataset on `financing_healthcare`</t>
-  </si>
-  <si>
-    <t>Complete LinkedIn, GitHub, Slack profiles that have been connected to our BYU-I data science community</t>
-  </si>
-  <si>
-    <t>A cover letter stating the key concepts and techniques that you learned during our projects and your goals to continue learning in this area - include a grade request that represents your knowledge and task completion</t>
-  </si>
-  <si>
-    <t>A resume that includes the skills you have learned during our projects</t>
-  </si>
-  <si>
-    <t>Semester project submission on GitHub</t>
-  </si>
-  <si>
-    <t>Use `tempfile()` function for downloading files</t>
-  </si>
-  <si>
-    <t>Find two other student's compiled files in their repository and provide feedback using the issues feature in GitHub (If they already have three issues find a different student to critique)</t>
-  </si>
-  <si>
-    <t>Address 1-2 of the issues posted on your project and push the updates to GitHub</t>
-  </si>
-  <si>
-    <t>https://byuistats.github.io/M335/r_help.html</t>
-  </si>
-  <si>
-    <t>Save your "tidy" data as an `.rds` object</t>
-  </si>
-  <si>
-    <t>See task 16</t>
-  </si>
-  <si>
-    <t>https://byuistats.github.io/M335/class_tasks/task16_details.html</t>
-  </si>
-  <si>
-    <t>Ignore the token submission step</t>
-  </si>
-  <si>
-    <t>Update your README.md in your repository (you will need to give me time to create your repo after you post your username)</t>
-  </si>
-  <si>
-    <t>Complete Lessons 5-7 in the `library(swirl)` package of the course `install_course("R Programming E")`</t>
-  </si>
-  <si>
-    <t>Recreate the two graphics shown below using `gapminder` dataset from `library(gapminder)` (get them to match as closely as you can)</t>
-  </si>
-  <si>
-    <t>Build weighted average data set using  `weighted.mean()` and GDP with  `mutate()` and `group_by()` that will be the black continent average line on the second plot</t>
-  </si>
-  <si>
-    <t>Use `library(ggplot2)` and the `theme_bw()` to duplicate the second plot. You will need to use the new data to make the black lines and dots showing the continent average.</t>
-  </si>
-  <si>
-    <t>Make sure your GitHub account is registered</t>
-  </si>
-  <si>
-    <t>Create a graphic that you could use in a presentation to summarize world child mortatility</t>
-  </si>
-  <si>
-    <t>MCS 335, Git, and Github use</t>
-  </si>
-  <si>
-    <t>https://byuistats.github.io/M335/git_335.html</t>
-  </si>
-  <si>
-    <t>R-Studio and the Git GUI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=E2d91v1Twcc</t>
-  </si>
-  <si>
-    <t>Use  `scale_y_continuous(trans = "sqrt")` to get the correct scale on the y-axis.</t>
-  </si>
-  <si>
-    <t>Create one plot that provides similar insight to their visualization in the article. It does not have to look like theirs.</t>
-  </si>
-  <si>
-    <t>Explore the world data on `financing_healthcare` and create an interesting graphic that highlights this dataset in relation to child mortality.</t>
-  </si>
-  <si>
-    <t>Use the `library(downloader)` R package and use the `download(mode = "wb")` function to download the xlsx data as `read_xlsx()` cannot read files from the web path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use the `separate()` and `mutate()` functions to create a decade column. </t>
-  </si>
-  <si>
-    <t>The BLS wage data does not have birth information.  Let's assume it is mid-twentieth century and use 1950.</t>
-  </si>
-  <si>
-    <t>Save the two tidy datasets to your repository - The world country estimates and the row-combined individual measurements.</t>
-  </si>
-  <si>
-    <t>Make sure the file is in long format with year as a column.  See [here](https://byuistats.github.io/M335/maleheight_tidy.html) for an example of the final format.</t>
-  </si>
-  <si>
-    <t>See the reading of [Task 7](https://byuistats.github.io/M335/class_tasks/task07_details.html) for how to read in dbf files.</t>
-  </si>
-  <si>
-    <t>Use `devtools::install_github("drsimonj/ourworldindata") to get a larger dataset on `child_mortality`.  This will require `install.packages("devtools")`.</t>
-  </si>
-  <si>
-    <t>https://github.com/hadley/devtools</t>
-  </si>
-  <si>
-    <t>Create a graphic that you could use in a final presentation to summarize world child mortatility (`child_mort` column)</t>
-  </si>
-  <si>
-    <t>devtoools R Package</t>
-  </si>
-  <si>
-    <t>Load the R package from GitHub `devtools::install_github("hathawayj/buildings")` and find out what [data is in the package](https://github.com/hathawayj/buildings)</t>
-  </si>
-  <si>
-    <t>Restaurants that are not assigned using the names and keywords that are over 4000 square feet should be grouped into `Full Service Restaurants` and be in `Quick Servie Restaurants` if they are under 4000 square feet</t>
-  </si>
-  <si>
-    <t>After filtering to `Food_Beverage_Service` group of buildings in the `Type` variable, use the `ProjectTitle` column to create new subgroups from the groupings in the code section below and the restaurant names in `restaurants`.</t>
-  </si>
-  <si>
-    <t>Make sure your text strings your ar matching on are as standardized as possible</t>
-  </si>
-  <si>
-    <t>leverage functions like `str_to_lower()` and `str_trim()` to get all the words in a standardized form</t>
-  </si>
-  <si>
-    <t>you could use the `case_when()` function to create the subgroups.</t>
-  </si>
-  <si>
-    <t>Construction value is related to population in the area.  Join the `climate_zone_fips` data to the `buildings0809` data using the two `FIPS` columns for state and county.</t>
-  </si>
-  <si>
-    <t>Create an `.Rmd` file with 2-3 paragraphs summarizing your 3-4 graphics that inform the client questions</t>
-  </si>
-  <si>
-    <t>https://qntm.org/files/re/re.html</t>
-  </si>
-  <si>
-    <t>https://regex101.com/</t>
-  </si>
-  <si>
-    <t>http://stat545.com/block022_regular-expression.html</t>
-  </si>
-  <si>
-    <t>Regular Expression support applet (optional)</t>
-  </si>
-  <si>
-    <t>Regular Expression for R (optional)</t>
-  </si>
-  <si>
-    <t>Regular Expression examples (optional)</t>
-  </si>
-  <si>
-    <t>regexr.com (optional)</t>
-  </si>
-  <si>
-    <t>Download the data from http://scriptures.nephi.org/downloads/lds-scriptures.csv.zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address questions 1 &amp; 2 using R functions from `install.packages("stringr")` and `install.packages("stringi")` </t>
-  </si>
-  <si>
-    <t>Use the `stri_stats_latex()` and `str_locate_all()` functions from each package</t>
-  </si>
-  <si>
-    <t>lubridate Vignette</t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/lubridate/vignettes/lubridate.html</t>
-  </si>
-  <si>
-    <t>https://plotlyblog.tumblr.com/post/117105992082/time-series-graphs-eleven-stunning-ways-you-can</t>
-  </si>
-  <si>
-    <t>Plotly: Time Series Blog Post</t>
-  </si>
-  <si>
-    <t>Use `riem_measures(station = "RXE",  date_start  = ,  date_end  =  )` for station `RXE` from `library(riem)` to get the matching temperatures</t>
-  </si>
-  <si>
-    <t>Create a new hourly grouping variable using `ceiling_date()` from `library(lubridate)`</t>
-  </si>
-  <si>
-    <t>Time Series Visualization Gallery</t>
-  </si>
-  <si>
-    <t>https://vcg.informatik.uni-rostock.de/~ct/timeviz/timeviz.html</t>
-  </si>
-  <si>
-    <t>Tidy Spatial Data (Blog Post)</t>
-  </si>
-  <si>
-    <t>http://strimas.com/r/tidy-sf/</t>
-  </si>
-  <si>
-    <t>USAboundaries R Package</t>
-  </si>
-  <si>
-    <t>https://github.com/ropensci/USAboundaries</t>
-  </si>
-  <si>
-    <t>Convert the times from UTC time to mountain standard time using the right function out of `library(lubridate)`.</t>
-  </si>
-  <si>
-    <t>Provide plots that help them know the different potential groups (variables) they could address in different seasons (2-4 visualizations seem necessary)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>John Rauser Talk (Review)</t>
-  </si>
-  <si>
-    <t>Pull the price performance data using `library(tidyquant)` or `library(quantmod)`</t>
-  </si>
-  <si>
-    <t>In the previous visualization or with another visualization show which stock is helping the winner of the competition</t>
-  </si>
-  <si>
-    <t>Video on spatial datums</t>
-  </si>
-  <si>
-    <t>Video 2 on spatial datums</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kXTHaMY3cVk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xKGlMp__jog</t>
-  </si>
-  <si>
-    <t>Using `library(sf)` to read in spatial data</t>
-  </si>
-  <si>
-    <t>https://r-spatial.github.io/sf/articles/sf2.html</t>
-  </si>
-  <si>
-    <t>Choose an option of recreating or using new data.</t>
-  </si>
-  <si>
-    <t>Recreate [CS 10](https://byuistats.github.io/M335/weekly_projects/cs10_details.html){target="blank"} tasks with leaflet</t>
-  </si>
-  <si>
-    <t>make a plot of the data to show the answer to the specific question</t>
-  </si>
-  <si>
-    <t>Develop a few novel questions that data can answer</t>
-  </si>
-  <si>
-    <t>Get feedback from 5-10 people on their interest in your questions and summarize this feedback</t>
-  </si>
-  <si>
-    <t>Be prepared to discuss your results in the upcoming class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build an R script that reads in, formats, and visualizes the data using the principles of exploratory analysis </t>
-  </si>
-  <si>
-    <t>After formatting your date identify any follow on or alternate questions that you could use for your project</t>
-  </si>
-  <si>
-    <t>Repeat the [task 12 tasks](https://byuistats.github.io/M335/class_tasks/task12_details.html){target="blank"} using three functions that you built</t>
-  </si>
-  <si>
-    <t>https://www.mindtools.com/pages/article/newTMC_88.htm</t>
-  </si>
-  <si>
-    <t>Creating Questions for your project</t>
-  </si>
-  <si>
-    <t>Finding data to answer your question</t>
-  </si>
-  <si>
-    <t>https://www.dataquest.io/blog/free-datasets-for-projects/</t>
-  </si>
-  <si>
-    <t>Semester Project</t>
-  </si>
-  <si>
-    <t>Finalize first draft of your project analysis</t>
-  </si>
-  <si>
-    <t>A semester task form that records your completed tasks during the semester (electronic or print)</t>
-  </si>
-  <si>
-    <t>Submit this material electronically schedule a visit with me</t>
-  </si>
-  <si>
-    <t>Schedule a mid-semester 15-minute interview to discuss your progress in the class.</t>
-  </si>
-  <si>
-    <t>Address at least two of the three questions in the background description (if you have time try to tackle all three)</t>
-  </si>
-  <si>
-    <t>Effectively Communicating Numbers (pg 1-13)</t>
-  </si>
-  <si>
-    <t>http://perceptualedge.com/articles/Whitepapers/Communicating_Numbers.pdf</t>
-  </si>
-  <si>
-    <t>Effectively Communicating Numbers (pg 13-20)</t>
-  </si>
-  <si>
-    <t>Issues with Spatial Aggregation</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wn5larsRHro</t>
-  </si>
-  <si>
-    <t>Find a post from the functional art</t>
-  </si>
-  <si>
-    <t>http://www.thefunctionalart.com</t>
-  </si>
-  <si>
-    <t>Create an account on [slack](https://w18dwv.slack.com/signup){target="blank"}.  You might create a catchy username that matches your other social media usernames and that can follow you for your career. Mine is `hathawayj`.</t>
-  </si>
-  <si>
-    <t>Read the [course sylabus](https://byuistats.github.io/M335/syllabus.html) and make sure you understand our class routine and grading</t>
-  </si>
-  <si>
-    <t>Check your folder structure in your git repo to match the format for our class - [see MCS 335 Folder Structure](https://byuistats.github.io/M335/git_335.html)</t>
-  </si>
-  <si>
-    <t>Chapter 30: R for Data Science - R Markdown workflow</t>
-  </si>
-  <si>
-    <t>https://campus.datacamp.com/courses/introduction-to-the-tidyverse/data-wrangling-1?ex=1</t>
-  </si>
-  <si>
-    <t>DataCamp:  Data Wrangling Chapter of Introduction to Tidyverse</t>
-  </si>
-  <si>
-    <t>https://campus.datacamp.com/courses/introduction-to-the-tidyverse/grouping-and-summarizing?ex=1</t>
-  </si>
-  <si>
-    <t>DataCamp:  Data Transformation Chapter of Introduction to Tidyverse</t>
-  </si>
-  <si>
-    <t>Create a [GitHub account](https://github.com/join?source=header-home){target="blank"} and post your github username on the [google docs sheet](https://docs.google.com/spreadsheets/d/13aQsQYnGTQXyyBUGzE1V9MExEvG5woAmygtkdjltdjk/edit#gid=59053514)</t>
+    <t>Watch the Josh Wills video on big data and be prepared for a disucssion in class.</t>
+  </si>
+  <si>
+    <t>Create an account on [slack](https://join.slack.com/t/byuidwv/signup?x=x-339637048932-339197858336){target="blank"}.  You might create a catchy username that matches your other social media usernames and that can follow you for your career. Mine is `hathawayj`.</t>
+  </si>
+  <si>
+    <t>Take notes on your reading of the specified 'R for Data Science' chapter in the README.md or in a '.R' script in the class task folder</t>
+  </si>
+  <si>
+    <t>Take notes on your reading of the new R package in the README.md or in a '.R' script in the class task folder</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1430,6 +1454,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1711,13 +1738,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="115.85546875" style="1" customWidth="1"/>
@@ -1742,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1769,36 +1796,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
+      <c r="B9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,55 +1838,55 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>333</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>335</v>
+      <c r="C12" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
+      <c r="B13" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
+      <c r="B15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>434</v>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1870,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>339</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1878,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1886,7 +1910,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1894,18 +1918,18 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>334</v>
-      </c>
-      <c r="F21" t="s">
-        <v>390</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
+      <c r="B22" t="s">
+        <v>331</v>
+      </c>
+      <c r="F22" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1913,65 +1937,65 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" t="s">
-        <v>428</v>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
-        <v>403</v>
-      </c>
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>404</v>
-      </c>
+      <c r="B26" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" t="s">
-        <v>242</v>
-      </c>
+      <c r="B27" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="C29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>4</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>92</v>
+      <c r="C30" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1979,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C31" s="8"/>
     </row>
@@ -1987,89 +2011,92 @@
       <c r="A32" s="7">
         <v>4</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="C32" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>4</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>4</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
         <v>5</v>
       </c>
-      <c r="B33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>190</v>
-      </c>
+      <c r="B35" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>171</v>
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
         <v>6</v>
       </c>
-      <c r="B39" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>354</v>
-      </c>
+      <c r="B40" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>340</v>
+      <c r="B41" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
-      <c r="B42" t="s">
-        <v>222</v>
+      <c r="C42" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2077,331 +2104,336 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
-        <v>347</v>
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>321</v>
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>7</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>356</v>
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="48" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>7</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
         <v>8</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>8</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>8</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>8</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>8</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>8</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2" t="s">
-        <v>247</v>
-      </c>
+      <c r="B53" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>407</v>
+        <v>252</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="2">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>8</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
         <v>9</v>
       </c>
-      <c r="B55" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>9</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>9</v>
-      </c>
-      <c r="B59" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>9</v>
-      </c>
-      <c r="B60" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>9</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="B61" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>10</v>
-      </c>
-      <c r="B63" t="s">
-        <v>218</v>
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>10</v>
-      </c>
-      <c r="B64" t="s">
-        <v>219</v>
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>10</v>
-      </c>
-      <c r="B65" t="s">
-        <v>330</v>
+        <v>9</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>10</v>
-      </c>
-      <c r="B68" t="s">
-        <v>223</v>
+        <v>9</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>11</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15">
+        <v>10</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>12</v>
-      </c>
-      <c r="B79" t="s">
-        <v>178</v>
-      </c>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15">
+        <v>11</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>417</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>13</v>
-      </c>
-      <c r="B81" t="s">
-        <v>224</v>
+        <v>11</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
         <v>223</v>
@@ -2409,371 +2441,533 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>373</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>374</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>14</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>375</v>
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>14</v>
-      </c>
-      <c r="B90" t="s">
-        <v>197</v>
-      </c>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15">
+        <v>13</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>16</v>
-      </c>
-      <c r="B95" t="s">
-        <v>272</v>
-      </c>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15">
+        <v>14</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>16</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>388</v>
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>16</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>381</v>
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>16</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>271</v>
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>16</v>
-      </c>
-      <c r="B99" t="s">
-        <v>380</v>
+        <v>14</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>16</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>273</v>
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B102" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>17</v>
-      </c>
-      <c r="B103" t="s">
-        <v>287</v>
-      </c>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15">
+        <v>15</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C103" s="1"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>392</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>393</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>17</v>
-      </c>
-      <c r="B108" t="s">
-        <v>82</v>
+        <v>16</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>18</v>
-      </c>
-      <c r="B109" t="s">
-        <v>289</v>
+        <v>16</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>18</v>
-      </c>
-      <c r="B110" t="s">
-        <v>290</v>
+        <v>16</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>18</v>
-      </c>
-      <c r="B112" t="s">
-        <v>82</v>
+        <v>16</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>19</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>19</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>310</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15">
+        <v>17</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>311</v>
+        <v>385</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>313</v>
+        <v>386</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>21</v>
-      </c>
-      <c r="B122" t="s">
-        <v>319</v>
-      </c>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="15">
+        <v>18</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C122" s="1"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B123" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B124" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B125" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B126" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>23</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C127" s="11"/>
+    <row r="127" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="15">
+        <v>19</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C127" s="1"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
+        <v>19</v>
+      </c>
+      <c r="B128" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>19</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>19</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>19</v>
+      </c>
+      <c r="B131" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="15">
+        <v>20</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="15">
+        <v>20</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>20</v>
+      </c>
+      <c r="B134" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>20</v>
+      </c>
+      <c r="B135" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>20</v>
+      </c>
+      <c r="B136" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>20</v>
+      </c>
+      <c r="B137" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>20</v>
+      </c>
+      <c r="B138" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="15">
+        <v>21</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>22</v>
+      </c>
+      <c r="B141" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>22</v>
+      </c>
+      <c r="B142" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>22</v>
+      </c>
+      <c r="B143" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>22</v>
+      </c>
+      <c r="B144" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="15">
         <v>23</v>
       </c>
-      <c r="B128" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="B145" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>23</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C146" s="11"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>23</v>
+      </c>
+      <c r="B147" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>24</v>
       </c>
-      <c r="B130" t="s">
-        <v>315</v>
+      <c r="B148" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2784,13 +2978,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2811,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2819,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2827,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2883,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2907,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2923,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2931,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>337</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2939,7 +3133,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3003,7 +3197,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -3069,7 +3263,7 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -3102,116 +3296,116 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>3</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>3</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>3</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>3</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>4</v>
       </c>
-      <c r="B34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>389</v>
+      <c r="B38" s="7" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
-      <c r="C39" t="s">
-        <v>83</v>
+      <c r="B39" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
-      <c r="B40" t="s">
-        <v>82</v>
+      <c r="C40" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>4</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>327</v>
+      <c r="B42" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>328</v>
+      <c r="C43" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>227</v>
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>352</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>4</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="C47" t="s">
-        <v>349</v>
+        <v>4</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3219,15 +3413,15 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
-      <c r="C49" t="s">
-        <v>230</v>
+      <c r="B49" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3235,7 +3429,7 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3243,7 +3437,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3251,31 +3445,31 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>351</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
-      <c r="B53" t="s">
-        <v>231</v>
+      <c r="C53" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
-      <c r="B54" t="s">
-        <v>232</v>
+      <c r="C54" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
-      <c r="B55" t="s">
-        <v>233</v>
+      <c r="C55" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3283,55 +3477,55 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>327</v>
+      <c r="B57" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>328</v>
+      <c r="B58" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>358</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>364</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>360</v>
+        <v>5</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s">
-        <v>359</v>
+        <v>5</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3339,31 +3533,31 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
-      <c r="C64" t="s">
-        <v>362</v>
+      <c r="B64" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6</v>
       </c>
-      <c r="C65" t="s">
-        <v>363</v>
+      <c r="B65" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6</v>
       </c>
-      <c r="B66" t="s">
-        <v>365</v>
+      <c r="C66" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3371,55 +3565,55 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>432</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>327</v>
+      <c r="C68" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>328</v>
+      <c r="C69" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>373</v>
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>195</v>
+        <v>6</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>209</v>
+        <v>6</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3427,7 +3621,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3435,7 +3629,7 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3443,7 +3637,7 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3451,7 +3645,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3459,71 +3653,71 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7</v>
       </c>
-      <c r="B79" t="s">
-        <v>204</v>
+      <c r="C79" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7</v>
       </c>
-      <c r="B80" t="s">
-        <v>82</v>
+      <c r="C80" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>327</v>
+      <c r="C81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>328</v>
+      <c r="B82" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>8</v>
-      </c>
-      <c r="C84" t="s">
-        <v>262</v>
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>263</v>
+        <v>7</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>8</v>
-      </c>
-      <c r="C86" t="s">
-        <v>264</v>
+        <v>7</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3531,7 +3725,7 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3539,7 +3733,7 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3547,7 +3741,7 @@
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3555,7 +3749,7 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3563,55 +3757,55 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>327</v>
+      <c r="C92" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>328</v>
+      <c r="C93" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>9</v>
-      </c>
-      <c r="B94" t="s">
-        <v>283</v>
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>284</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>9</v>
-      </c>
-      <c r="B96" t="s">
-        <v>285</v>
+        <v>8</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>9</v>
-      </c>
-      <c r="B97" t="s">
-        <v>286</v>
+        <v>8</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3619,55 +3813,55 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>327</v>
+      <c r="B99" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>328</v>
+      <c r="B100" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
-        <v>303</v>
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>10</v>
-      </c>
-      <c r="B103" t="s">
-        <v>304</v>
+        <v>9</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>10</v>
-      </c>
-      <c r="C104" t="s">
-        <v>305</v>
+        <v>9</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3675,15 +3869,15 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10</v>
       </c>
-      <c r="B106" t="s">
-        <v>307</v>
+      <c r="C106" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3691,55 +3885,55 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>82</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>327</v>
+      <c r="C108" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>328</v>
+      <c r="B109" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>400</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>11</v>
-      </c>
-      <c r="C111" t="s">
-        <v>401</v>
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>11</v>
-      </c>
-      <c r="C112" t="s">
-        <v>320</v>
+        <v>10</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>11</v>
-      </c>
-      <c r="B113" t="s">
-        <v>286</v>
+        <v>10</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3747,63 +3941,63 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>82</v>
+        <v>393</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>11</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>327</v>
+      <c r="C115" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>11</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>328</v>
+      <c r="C116" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>12</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>414</v>
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>12</v>
-      </c>
-      <c r="C118" t="s">
-        <v>249</v>
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>12</v>
-      </c>
-      <c r="C119" t="s">
-        <v>250</v>
+        <v>11</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>12</v>
-      </c>
-      <c r="B120" t="s">
-        <v>248</v>
+        <v>11</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>12</v>
       </c>
-      <c r="C121" t="s">
-        <v>251</v>
+      <c r="B121" s="4" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3811,7 +4005,7 @@
         <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -3819,47 +4013,47 @@
         <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>12</v>
       </c>
-      <c r="C124" t="s">
-        <v>254</v>
+      <c r="B124" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>13</v>
-      </c>
-      <c r="B125" t="s">
-        <v>322</v>
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>13</v>
-      </c>
-      <c r="B126" t="s">
-        <v>323</v>
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>13</v>
-      </c>
-      <c r="B127" t="s">
-        <v>324</v>
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>13</v>
-      </c>
-      <c r="B128" t="s">
-        <v>415</v>
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3867,7 +4061,7 @@
         <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3875,23 +4069,56 @@
         <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>416</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>13</v>
+      </c>
+      <c r="B131" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>13</v>
+      </c>
+      <c r="B132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>13</v>
+      </c>
+      <c r="B133" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>13</v>
+      </c>
+      <c r="B134" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="64.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66.42578125" bestFit="1" customWidth="1"/>
@@ -3961,7 +4188,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -3992,7 +4219,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4017,10 +4244,10 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D9" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4059,10 +4286,10 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4087,10 +4314,10 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>425</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4185,10 +4412,10 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4199,10 +4426,10 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4213,10 +4440,10 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>410</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>409</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4227,10 +4454,10 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>402</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4241,10 +4468,10 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>431</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>430</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4252,27 +4479,27 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D26" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>275</v>
+      </c>
+      <c r="C27" t="s">
+        <v>422</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4282,168 +4509,168 @@
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
-        <v>421</v>
+      <c r="C28" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>420</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>123</v>
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>6</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D32" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" t="s">
-        <v>85</v>
+        <v>36</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>6</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>4</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="C35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>258</v>
-      </c>
-      <c r="D36" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="C37" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
         <v>7</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="B38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>357</v>
-      </c>
-      <c r="D38" t="s">
-        <v>355</v>
-      </c>
-      <c r="I38" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>411</v>
+      <c r="C39" t="s">
+        <v>352</v>
       </c>
       <c r="D39" t="s">
-        <v>412</v>
+        <v>350</v>
+      </c>
+      <c r="I39" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4453,84 +4680,81 @@
       <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="C40" t="s">
-        <v>424</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="C40" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D40" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>414</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>8</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>8</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
         <v>5</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B44" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="45" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>5</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C42" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I42" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>9</v>
-      </c>
-      <c r="B43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>9</v>
-      </c>
-      <c r="B45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" t="s">
-        <v>162</v>
-      </c>
-      <c r="D45" t="s">
-        <v>163</v>
+      <c r="C45" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4541,10 +4765,10 @@
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" t="s">
-        <v>207</v>
+        <v>150</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4555,38 +4779,38 @@
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
         <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="D49" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4597,80 +4821,80 @@
         <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
-        <v>6</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>168</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
         <v>6</v>
       </c>
-      <c r="B52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>11</v>
-      </c>
-      <c r="B53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" t="s">
-        <v>142</v>
+      <c r="B53" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
         <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
         <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4681,10 +4905,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>372</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4695,10 +4919,10 @@
         <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>371</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>366</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4709,10 +4933,10 @@
         <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D58" t="s">
-        <v>367</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4723,52 +4947,52 @@
         <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D59" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>183</v>
+        <v>36</v>
+      </c>
+      <c r="C60" t="s">
+        <v>362</v>
       </c>
       <c r="D60" t="s">
-        <v>186</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
         <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>363</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" t="s">
-        <v>120</v>
+        <v>37</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D62" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4779,178 +5003,178 @@
         <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="D63" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
         <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="D64" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D65" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>276</v>
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
+        <v>192</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
         <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>147</v>
+        <v>193</v>
+      </c>
+      <c r="D67" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" t="s">
-        <v>382</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>383</v>
+        <v>37</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D68" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
         <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>376</v>
+        <v>158</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>377</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
         <v>36</v>
       </c>
       <c r="C70" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>331</v>
+        <v>36</v>
+      </c>
+      <c r="C71" t="s">
+        <v>369</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>278</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>279</v>
-      </c>
-      <c r="D72" t="s">
-        <v>280</v>
+        <v>372</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
-      </c>
-      <c r="C73" t="s">
-        <v>126</v>
-      </c>
-      <c r="D73" t="s">
-        <v>127</v>
+        <v>37</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="D74" t="s">
-        <v>128</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
         <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>293</v>
+        <v>384</v>
       </c>
       <c r="D75" t="s">
-        <v>294</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4961,10 +5185,10 @@
         <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>391</v>
+        <v>126</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4974,42 +5198,39 @@
       <c r="B77" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>125</v>
+      <c r="C77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>384</v>
+        <v>36</v>
+      </c>
+      <c r="C78" t="s">
+        <v>290</v>
       </c>
       <c r="D78" t="s">
-        <v>385</v>
-      </c>
-      <c r="G78" t="s">
-        <v>390</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
-      </c>
-      <c r="C79" t="s">
-        <v>256</v>
-      </c>
-      <c r="D79" t="s">
-        <v>257</v>
+        <v>36</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5019,39 +5240,42 @@
       <c r="B80" t="s">
         <v>37</v>
       </c>
-      <c r="C80" t="s">
-        <v>298</v>
+      <c r="C80" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="D80" t="s">
-        <v>299</v>
+        <v>378</v>
+      </c>
+      <c r="G80" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D82" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5062,10 +5286,10 @@
         <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>386</v>
+        <v>293</v>
       </c>
       <c r="D83" t="s">
-        <v>387</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5076,10 +5300,10 @@
         <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>394</v>
+        <v>297</v>
       </c>
       <c r="D84" t="s">
-        <v>397</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5090,38 +5314,38 @@
         <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="D85" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B86" t="s">
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D86" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B87" t="s">
         <v>36</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>388</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -5132,52 +5356,52 @@
         <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="D88" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C89" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B90" t="s">
         <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>107</v>
+        <v>412</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>413</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -5188,10 +5412,10 @@
         <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -5202,10 +5426,10 @@
         <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -5216,10 +5440,10 @@
         <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -5230,10 +5454,10 @@
         <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D95" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -5244,38 +5468,38 @@
         <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D96" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B97" t="s">
         <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D97" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B98" t="s">
         <v>36</v>
       </c>
       <c r="C98" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D98" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -5286,131 +5510,159 @@
         <v>36</v>
       </c>
       <c r="C99" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D99" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C100" t="s">
-        <v>413</v>
+        <v>135</v>
       </c>
       <c r="D100" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B101" t="s">
         <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D101" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
+        <v>12</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" t="s">
+        <v>405</v>
+      </c>
+      <c r="D102" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>23</v>
       </c>
-      <c r="B102" t="s">
-        <v>36</v>
-      </c>
-      <c r="C102" t="s">
-        <v>281</v>
-      </c>
-      <c r="D102" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
-        <v>23</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>103</v>
+      <c r="B103" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" t="s">
+        <v>159</v>
+      </c>
+      <c r="D103" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B104" t="s">
         <v>36</v>
       </c>
       <c r="C104" t="s">
-        <v>144</v>
+        <v>278</v>
       </c>
       <c r="D104" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>24</v>
-      </c>
-      <c r="B105" t="s">
-        <v>36</v>
-      </c>
-      <c r="C105" t="s">
-        <v>145</v>
-      </c>
-      <c r="D105" t="s">
-        <v>143</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>23</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C106" t="s">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="D106" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
+        <v>24</v>
+      </c>
+      <c r="B107" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>13</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>37</v>
       </c>
-      <c r="C107" t="s">
-        <v>236</v>
-      </c>
-      <c r="D107" t="s">
-        <v>237</v>
+      <c r="C108" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" t="s">
+        <v>233</v>
+      </c>
+      <c r="D109" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D67" r:id="rId1"/>
-    <hyperlink ref="D71" r:id="rId2"/>
-    <hyperlink ref="D42" r:id="rId3"/>
-    <hyperlink ref="D21" r:id="rId4"/>
-    <hyperlink ref="D40" r:id="rId5"/>
+    <hyperlink ref="D69" r:id="rId1"/>
+    <hyperlink ref="D73" r:id="rId2"/>
+    <hyperlink ref="D21" r:id="rId3"/>
+    <hyperlink ref="D41" r:id="rId4"/>
+    <hyperlink ref="D43" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
